--- a/prelim/PPI Info (Belgium).xlsx
+++ b/prelim/PPI Info (Belgium).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
   <si>
     <t xml:space="preserve">iso2c</t>
   </si>
@@ -736,6 +736,9 @@
     <t xml:space="preserve">borders.border</t>
   </si>
   <si>
+    <t xml:space="preserve">Borders</t>
+  </si>
+  <si>
     <t xml:space="preserve">national</t>
   </si>
   <si>
@@ -89723,9 +89726,11 @@
       <c r="C2" t="s">
         <v>239</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="s">
+        <v>240</v>
+      </c>
       <c r="E2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -90170,9 +90175,11 @@
       <c r="C3" t="s">
         <v>239</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="s">
+        <v>240</v>
+      </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -90615,13 +90622,13 @@
         <v>238</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -91064,13 +91071,13 @@
         <v>238</v>
       </c>
       <c r="C5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" t="s">
         <v>242</v>
-      </c>
-      <c r="D5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E5" t="s">
-        <v>241</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -91513,13 +91520,13 @@
         <v>238</v>
       </c>
       <c r="C6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -91962,13 +91969,13 @@
         <v>238</v>
       </c>
       <c r="C7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -92411,13 +92418,13 @@
         <v>238</v>
       </c>
       <c r="C8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -92860,13 +92867,13 @@
         <v>238</v>
       </c>
       <c r="C9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -93309,13 +93316,13 @@
         <v>238</v>
       </c>
       <c r="C10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -93758,13 +93765,13 @@
         <v>238</v>
       </c>
       <c r="C11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -94207,13 +94214,13 @@
         <v>238</v>
       </c>
       <c r="C12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -94656,13 +94663,13 @@
         <v>238</v>
       </c>
       <c r="C13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -95105,13 +95112,13 @@
         <v>238</v>
       </c>
       <c r="C14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -95554,13 +95561,13 @@
         <v>238</v>
       </c>
       <c r="C15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -96003,13 +96010,13 @@
         <v>238</v>
       </c>
       <c r="C16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -96452,13 +96459,13 @@
         <v>238</v>
       </c>
       <c r="C17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E17" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -96901,13 +96908,13 @@
         <v>238</v>
       </c>
       <c r="C18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D18" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -97350,13 +97357,13 @@
         <v>238</v>
       </c>
       <c r="C19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -97799,13 +97806,13 @@
         <v>238</v>
       </c>
       <c r="C20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D20" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -98248,13 +98255,13 @@
         <v>238</v>
       </c>
       <c r="C21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -98697,13 +98704,13 @@
         <v>238</v>
       </c>
       <c r="C22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D22" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E22" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -99146,13 +99153,13 @@
         <v>238</v>
       </c>
       <c r="C23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D23" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E23" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -99595,13 +99602,13 @@
         <v>238</v>
       </c>
       <c r="C24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D24" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E24" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -100044,13 +100051,13 @@
         <v>238</v>
       </c>
       <c r="C25" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D25" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E25" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -100493,13 +100500,13 @@
         <v>238</v>
       </c>
       <c r="C26" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D26" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E26" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -100942,13 +100949,13 @@
         <v>238</v>
       </c>
       <c r="C27" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D27" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E27" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -101391,13 +101398,13 @@
         <v>238</v>
       </c>
       <c r="C28" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D28" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -101840,13 +101847,13 @@
         <v>238</v>
       </c>
       <c r="C29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D29" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -102289,13 +102296,13 @@
         <v>238</v>
       </c>
       <c r="C30" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E30" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F30" t="n">
         <v>0.25</v>
@@ -102738,13 +102745,13 @@
         <v>238</v>
       </c>
       <c r="C31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E31" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
